--- a/biology/Botanique/Arboretum_de_Jouéou/Arboretum_de_Jouéou.xlsx
+++ b/biology/Botanique/Arboretum_de_Jouéou/Arboretum_de_Jouéou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arboretum_de_Jou%C3%A9ou</t>
+          <t>Arboretum_de_Jouéou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'arboretum de Jouéou (connu aussi comme Arboretum Henri-Gaussen) est un arboretum de 1,9 hectares, qui dépend administrativement du jardin botanique Henri-Gaussen de Toulouse, et se trouve sur le territoire de la commune de Bagnères-de-Luchon, en France.
 L'arboretum est reconnu comme "Collection nationale" par le Conservatoire des collections végétales spécialisées (CCVS) en particulier pour son exceptionnelle collection de  250 taxons différents de conifères.
-Le code d'identification d'Arboretum de Jouéou en tant que membre du "Botanic Gardens Conservation International" (BGCI), ainsi que le sigle d'identification de son herbier, est TOU[1].
+Le code d'identification d'Arboretum de Jouéou en tant que membre du "Botanic Gardens Conservation International" (BGCI), ainsi que le sigle d'identification de son herbier, est TOU.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arboretum_de_Jou%C3%A9ou</t>
+          <t>Arboretum_de_Jouéou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Administration :
 43°36′13.32″N 1°26′34.44″E﻿ / ﻿43.6037000°N 1.4429000°E﻿ / 43.6037000; 1.4429000﻿ (Arboretum de Jouéou: administración)
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arboretum_de_Jou%C3%A9ou</t>
+          <t>Arboretum_de_Jouéou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arboretum a été créé entre 1921 et 1928 par le Professeur Henri Gaussen.
 Il continue à être administré par le jardin botanique Henri-Gaussen de l'Université Paul-Sabatier à Toulouse.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arboretum_de_Jou%C3%A9ou</t>
+          <t>Arboretum_de_Jouéou</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il héberge 250 taxons de conifères originaires du monde entier, dont 186 peuvent être observés dans la nature et 64 sont des hybrides ou des cultivars, organisés d'une façon systématique avec les espèces des États-Unis dans la zone ouest, de Méditerranée, Europe centrale et Asie de l'est.
 Le jardin a deux sections :
